--- a/senario/senarioのコピー.xlsx
+++ b/senario/senarioのコピー.xlsx
@@ -4,14 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="chuumon" sheetId="5" r:id="rId1"/>
-    <sheet name="osusume" sheetId="4" r:id="rId2"/>
-    <sheet name="hello" sheetId="3" r:id="rId3"/>
-    <sheet name="survey2.csv" sheetId="2" r:id="rId4"/>
-    <sheet name="survey.csv" sheetId="1" r:id="rId5"/>
+    <sheet name="memo" sheetId="10" r:id="rId1"/>
+    <sheet name="baibai" sheetId="9" r:id="rId2"/>
+    <sheet name="kaikei" sheetId="8" r:id="rId3"/>
+    <sheet name="kansou" sheetId="7" r:id="rId4"/>
+    <sheet name="hoi" sheetId="6" r:id="rId5"/>
+    <sheet name="chuumon" sheetId="5" r:id="rId6"/>
+    <sheet name="osusume" sheetId="4" r:id="rId7"/>
+    <sheet name="hello" sheetId="3" r:id="rId8"/>
+    <sheet name="survey2.csv" sheetId="2" r:id="rId9"/>
+    <sheet name="survey.csv" sheetId="1" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="48">
   <si>
     <t>no</t>
   </si>
@@ -193,6 +198,87 @@
   </si>
   <si>
     <t>ハンバーグセットでホットコーヒーと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負けませんよ</t>
+    <rPh sb="0" eb="6">
+      <t>マk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あっち向いて</t>
+    <rPh sb="3" eb="6">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェフが感想を聞きたいんだって。</t>
+    <rPh sb="4" eb="7">
+      <t>カンソ</t>
+    </rPh>
+    <rPh sb="7" eb="16">
+      <t>キk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンバーグセットどうだった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トマトだね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝えておくよ</t>
+    <rPh sb="0" eb="6">
+      <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お会計ですね</t>
+    <rPh sb="1" eb="6">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承知致しました</t>
+    <rPh sb="0" eb="2">
+      <t>ショウt</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>イタシマシt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僕を持ってレジまでお進みください。</t>
+    <rPh sb="0" eb="1">
+      <t>ボk</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モッt</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ススm</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイバーイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>after_wait</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -252,8 +338,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -342,7 +446,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="103">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -385,6 +489,15 @@
     <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -428,10 +541,111 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="102" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1511300" y="101600"/>
+          <a:ext cx="5588000" cy="3937000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>after_wait: -1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を入力すると、待ちます。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>dat/restart</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルを作ると動き始めます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -756,15 +970,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -804,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -825,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -835,6 +1068,9 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -842,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -854,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -864,23 +1100,20 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -897,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -929,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -961,28 +1194,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -990,7 +1223,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1005,16 +1238,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1022,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1031,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1043,9 +1276,227 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>-1</v>
       </c>
-      <c r="J9">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>-1</v>
       </c>
     </row>
@@ -1063,15 +1514,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1111,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1123,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1143,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1175,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1196,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1207,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1216,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1231,38 +1682,6 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
         <v>-1</v>
       </c>
     </row>
@@ -1283,12 +1702,12 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1340,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1360,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1392,7 +1811,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1424,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1439,13 +1858,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1456,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1465,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -1497,15 +1916,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1545,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1557,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1577,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1608,20 +2027,23 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1631,6 +2053,131 @@
       </c>
       <c r="J4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +2194,502 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1695,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1716,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1727,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1758,20 +2797,23 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1788,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1803,13 +2845,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -1820,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1829,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1844,318 +2886,342 @@
         <v>0</v>
       </c>
       <c r="J6">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
